--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -139,12 +139,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -152,6 +146,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,68 +268,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +617,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -631,29 +631,29 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="14">
         <v>2018</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="18">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="19">
         <v>2019</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -718,708 +718,708 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="9"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="9"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="9"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="9"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="9"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="9"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="9"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="9"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="10"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="9"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="9"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="9"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="8"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="9"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="9"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="8"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="13"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="21"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="9"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="8"/>
     </row>
     <row r="34" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="17" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
       <c r="Q34" s="17" t="s">
         <v>18</v>
       </c>
@@ -1429,12 +1429,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="Q34:T34"/>
     <mergeCell ref="I1:T1"/>
     <mergeCell ref="A27:A28"/>
@@ -1448,6 +1442,12 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\108509\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\108509\Desktop\babyhub2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -304,6 +304,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -316,20 +328,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,12 +617,12 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomRight" sqref="A1:T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="2" customWidth="1"/>
     <col min="2" max="20" width="3.625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
@@ -631,29 +631,29 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="18">
         <v>2018</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="19">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="16">
         <v>2019</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -718,11 +718,11 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -742,7 +742,7 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -764,12 +764,12 @@
       <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -788,7 +788,7 @@
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -810,14 +810,14 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -834,7 +834,7 @@
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
@@ -856,12 +856,12 @@
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -880,7 +880,7 @@
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
@@ -902,16 +902,16 @@
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -926,7 +926,7 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
@@ -948,7 +948,7 @@
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
@@ -957,12 +957,12 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -972,7 +972,7 @@
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -994,7 +994,7 @@
       <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4"/>
@@ -1002,13 +1002,13 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1018,7 +1018,7 @@
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1040,7 +1040,7 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="4"/>
@@ -1052,9 +1052,9 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1064,7 +1064,7 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1086,7 +1086,7 @@
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="4"/>
@@ -1098,19 +1098,19 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1132,7 +1132,7 @@
       <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4"/>
@@ -1146,17 +1146,17 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
       <c r="T21" s="9"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1168,7 +1168,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="6"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1178,7 +1178,7 @@
       <c r="T22" s="8"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="4"/>
@@ -1190,9 +1190,9 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
@@ -1202,7 +1202,7 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1224,31 +1224,31 @@
       <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1270,7 +1270,7 @@
       <c r="T26" s="8"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="4"/>
@@ -1287,14 +1287,14 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1316,7 +1316,7 @@
       <c r="T28" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="4"/>
@@ -1333,14 +1333,14 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1362,7 +1362,7 @@
       <c r="T30" s="8"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="4"/>
@@ -1381,12 +1381,12 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="21"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="14"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1408,27 +1408,30 @@
       <c r="T32" s="8"/>
     </row>
     <row r="34" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="17" t="s">
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="17" t="s">
+      <c r="Q34" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="Q34:T34"/>
     <mergeCell ref="I1:T1"/>
     <mergeCell ref="A27:A28"/>
@@ -1445,9 +1448,6 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="J34:M34"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -310,15 +310,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -327,9 +330,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,29 +631,29 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="19">
         <v>2018</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="16">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="18">
         <v>2019</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -718,7 +718,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
@@ -742,7 +742,7 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -764,7 +764,7 @@
       <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
@@ -788,7 +788,7 @@
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -810,7 +810,7 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
@@ -834,7 +834,7 @@
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
@@ -856,7 +856,7 @@
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
@@ -880,7 +880,7 @@
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
@@ -902,7 +902,7 @@
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4"/>
@@ -926,7 +926,7 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
@@ -948,7 +948,7 @@
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="4"/>
@@ -972,7 +972,7 @@
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -994,7 +994,7 @@
       <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4"/>
@@ -1018,7 +1018,7 @@
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1040,7 +1040,7 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="4"/>
@@ -1064,7 +1064,7 @@
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1086,7 +1086,7 @@
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="4"/>
@@ -1110,7 +1110,7 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1132,7 +1132,7 @@
       <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4"/>
@@ -1156,7 +1156,7 @@
       <c r="T21" s="9"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1178,7 +1178,7 @@
       <c r="T22" s="8"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="4"/>
@@ -1202,7 +1202,7 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1224,7 +1224,7 @@
       <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="4"/>
@@ -1248,7 +1248,7 @@
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1270,7 +1270,7 @@
       <c r="T26" s="8"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="4"/>
@@ -1294,7 +1294,7 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1316,7 +1316,7 @@
       <c r="T28" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="4"/>
@@ -1340,7 +1340,7 @@
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1362,7 +1362,7 @@
       <c r="T30" s="8"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="4"/>
@@ -1386,7 +1386,7 @@
       <c r="T31" s="14"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1411,24 +1411,27 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="15" t="s">
+      <c r="Q34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J34:M34"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -1445,9 +1448,6 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J34:M34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>網頁程式撰寫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撰寫DFD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,7 +147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FF4A91D2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,32 +300,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -337,6 +333,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4A91D2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -611,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:T34"/>
+      <selection pane="bottomRight" sqref="A1:T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -631,29 +632,29 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="14">
         <v>2018</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="18">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="19">
         <v>2019</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -718,11 +719,11 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -742,7 +743,7 @@
       <c r="T3" s="5"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
@@ -764,12 +765,12 @@
       <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -788,7 +789,7 @@
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -810,14 +811,14 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -834,7 +835,7 @@
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
@@ -856,12 +857,12 @@
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -880,7 +881,7 @@
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
@@ -902,16 +903,16 @@
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -926,7 +927,7 @@
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
@@ -948,8 +949,8 @@
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>10</v>
+      <c r="A13" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -957,12 +958,12 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -972,7 +973,7 @@
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -994,7 +995,7 @@
       <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4"/>
@@ -1002,13 +1003,13 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1018,7 +1019,7 @@
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1040,8 +1041,8 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
+      <c r="A17" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1052,19 +1053,19 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1074,9 +1075,9 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1086,8 +1087,8 @@
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>8</v>
+      <c r="A19" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1098,19 +1099,19 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1120,9 +1121,9 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1132,7 +1133,7 @@
       <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="4"/>
@@ -1144,19 +1145,19 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="9"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1167,8 +1168,8 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="11"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1178,100 +1179,100 @@
       <c r="T22" s="8"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
       <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
       <c r="T26" s="8"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>15</v>
+      <c r="A27" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1284,17 +1285,17 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1316,8 +1317,8 @@
       <c r="T28" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>11</v>
+      <c r="A29" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1330,17 +1331,17 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="5"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="21"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1361,93 +1362,46 @@
       <c r="S30" s="7"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="14"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="8"/>
-    </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="17" t="s">
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J32:M32"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
